--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,10 +743,10 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -804,8 +810,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,10 +837,10 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -848,8 +857,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,20 +1097,21 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1096,37 +1122,40 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
@@ -1140,28 +1169,31 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,23 +1210,24 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1222,23 +1255,26 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
@@ -1246,10 +1282,10 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,23 +1349,26 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
@@ -1334,28 +1376,31 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,23 +1490,26 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
@@ -1466,43 +1517,46 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
@@ -1510,28 +1564,31 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,23 +1772,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1750,23 +1819,26 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
@@ -1774,28 +1846,31 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,23 +1913,26 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
@@ -1862,77 +1940,83 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,17 +2052,18 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2000,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2144,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -2097,10 +2189,13 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2157,8 +2255,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2172,11 +2270,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2187,22 +2285,25 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
@@ -2220,7 +2321,7 @@
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
@@ -2229,10 +2330,13 @@
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2307,20 +2414,23 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,13 +2673,13 @@
         <v>1200</v>
       </c>
       <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -2572,7 +2697,7 @@
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -2581,10 +2706,13 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2646,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2707,8 +2840,11 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2852,7 @@
         <v>1800</v>
       </c>
       <c r="E59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
@@ -2728,22 +2864,22 @@
         <v>1100</v>
       </c>
       <c r="I59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,43 +2899,46 @@
         <v>1800</v>
       </c>
       <c r="E60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2981,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1400</v>
       </c>
       <c r="F66" s="3">
         <v>1400</v>
       </c>
       <c r="G66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-2700</v>
       </c>
       <c r="F72" s="3">
         <v>-2700</v>
       </c>
       <c r="G72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2700</v>
       </c>
       <c r="J72" s="3">
         <v>-2700</v>
       </c>
       <c r="K72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1900</v>
       </c>
       <c r="N72" s="3">
         <v>-1900</v>
       </c>
       <c r="O72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1000</v>
       </c>
       <c r="J76" s="3">
         <v>-1000</v>
       </c>
       <c r="K76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,72 +3705,78 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
@@ -3590,28 +3784,31 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,8 +3852,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,7 +4117,7 @@
         <v>800</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3913,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -3934,10 +4150,13 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,8 +4185,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3980,11 +4200,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,22 +4566,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4351,25 +4596,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,23 +4654,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,102 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,13 +804,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -813,11 +827,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -828,25 +842,31 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -860,11 +880,11 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,26 +1150,28 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
@@ -1125,19 +1179,19 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1145,23 +1199,29 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
@@ -1172,19 +1232,19 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,29 +1277,31 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1258,40 +1326,46 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1305,13 +1379,19 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1352,46 +1432,52 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1399,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1591,52 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1540,46 +1644,52 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1587,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,29 +1909,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1822,46 +1962,52 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1869,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +2068,52 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -1963,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,23 +2225,25 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2089,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,22 +2327,28 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -2192,10 +2378,16 @@
         <v>300</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2258,11 +2456,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2273,14 +2471,14 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2288,28 +2486,34 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>1200</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
@@ -2324,19 +2528,25 @@
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,10 +2607,10 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2417,20 +2633,26 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,28 +2910,34 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
@@ -2700,19 +2952,25 @@
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,43 +3009,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -2796,16 +3058,22 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2814,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2843,22 +3111,28 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
@@ -2867,78 +3141,90 @@
         <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,19 +3270,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3010,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,98 +4086,110 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -3807,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3855,11 +4253,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,23 +4536,29 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4132,31 +4566,37 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,25 +4614,27 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4203,14 +4645,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,28 +5055,34 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4599,25 +5091,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4657,29 +5155,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -795,25 +799,28 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -833,8 +840,8 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -848,16 +855,19 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -866,10 +876,10 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -886,8 +896,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,29 +1178,30 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1185,46 +1212,49 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1238,28 +1268,31 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,32 +1312,33 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1332,32 +1366,35 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
@@ -1365,10 +1402,10 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1385,16 +1422,19 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1438,32 +1478,35 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
@@ -1471,28 +1514,31 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,32 +1646,35 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
@@ -1630,52 +1682,55 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
@@ -1683,28 +1738,31 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,32 +1982,35 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1968,32 +2038,35 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
@@ -2001,28 +2074,31 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,32 +2150,35 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
@@ -2107,86 +2186,92 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,26 +2313,27 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2269,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,25 +2423,28 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2384,10 +2477,13 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2462,8 +2561,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2477,11 +2576,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2492,31 +2591,34 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -2534,7 +2636,7 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
@@ -2543,10 +2645,13 @@
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2613,7 +2721,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2639,20 +2747,23 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,31 +3039,34 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
       </c>
       <c r="G54" s="3">
         <v>1200</v>
       </c>
       <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
@@ -2958,7 +3084,7 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -2967,10 +3093,13 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,20 +3141,21 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3037,8 +3168,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3047,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,8 +3209,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3088,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3117,25 +3251,28 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="I59" s="3">
         <v>1100</v>
@@ -3147,22 +3284,22 @@
         <v>1100</v>
       </c>
       <c r="L59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3170,61 +3307,67 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1800</v>
       </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3290,8 +3436,8 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1400</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
       </c>
       <c r="J66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>1500</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>-2500</v>
       </c>
       <c r="E72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2700</v>
       </c>
       <c r="I72" s="3">
         <v>-2700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2700</v>
       </c>
       <c r="M72" s="3">
         <v>-2700</v>
       </c>
       <c r="N72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q72" s="3">
         <v>-1900</v>
       </c>
       <c r="R72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,52 +4181,55 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1000</v>
       </c>
       <c r="M76" s="3">
         <v>-1000</v>
       </c>
       <c r="N76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,90 +4281,96 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
@@ -4183,28 +4378,31 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,25 +4756,28 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>800</v>
       </c>
       <c r="G89" s="3">
         <v>800</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4572,19 +4789,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4593,10 +4810,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4636,8 +4857,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4651,11 +4872,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5097,25 +5343,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5161,32 +5410,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -820,13 +833,13 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -843,11 +856,11 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -858,34 +871,40 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -899,11 +918,11 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,35 +1230,37 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
@@ -1215,19 +1268,19 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,22 +1303,22 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1271,19 +1330,19 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,29 +1389,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1369,49 +1436,55 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1425,22 +1498,28 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1481,55 +1560,61 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,55 +1746,61 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1705,55 +1808,61 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,29 +2133,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2041,55 +2180,61 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,55 +2304,61 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,32 +2485,34 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2359,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,31 +2605,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2480,10 +2665,16 @@
         <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,20 +2684,20 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2538,19 +2729,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2564,11 +2761,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2579,14 +2776,14 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2594,37 +2791,43 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G46" s="3">
         <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>1200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2639,19 +2842,25 @@
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,19 +2930,19 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2750,20 +2965,26 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,20 +3180,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,37 +3287,43 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -3087,19 +3338,25 @@
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,26 +3401,28 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3171,23 +3432,23 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3198,19 +3459,25 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3225,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3254,31 +3521,37 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2700</v>
+        <v>6400</v>
       </c>
       <c r="E59" s="3">
         <v>2400</v>
       </c>
       <c r="F59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
@@ -3287,87 +3560,99 @@
         <v>1100</v>
       </c>
       <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2700</v>
+        <v>6400</v>
       </c>
       <c r="E60" s="3">
         <v>2400</v>
       </c>
       <c r="F60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,28 +3707,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3457,11 +3748,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,116 +4661,128 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4818,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4461,11 +4858,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,32 +5186,38 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4792,31 +5225,37 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5276,36 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4875,14 +5316,14 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5458,26 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,37 +5792,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5346,25 +5837,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5413,38 +5910,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-800</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -815,34 +819,37 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -862,8 +869,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -877,25 +884,28 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -904,10 +914,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -924,8 +934,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,38 +1258,39 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
@@ -1274,54 +1301,57 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1336,28 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,26 +1429,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1442,40 +1476,43 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1484,10 +1521,10 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,11 +1558,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1566,40 +1606,43 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1608,28 +1651,31 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,40 +1801,43 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1794,60 +1846,63 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1856,28 +1911,31 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,26 +2209,26 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2186,40 +2256,43 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2228,28 +2301,31 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,40 +2386,43 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2352,95 +2431,101 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,35 +2573,36 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>900</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
+        <v>900</v>
+      </c>
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2538,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,25 +2713,25 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2671,21 +2764,24 @@
         <v>300</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2699,8 +2795,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2735,22 +2831,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5400</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2767,8 +2866,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2782,11 +2881,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,31 +2908,31 @@
         <v>6000</v>
       </c>
       <c r="E46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="F46" s="3">
         <v>1800</v>
       </c>
       <c r="G46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
@@ -2848,7 +2950,7 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
@@ -2857,10 +2959,13 @@
         <v>400</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2936,7 +3044,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2945,7 +3053,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2971,20 +3079,23 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3180,8 +3300,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3195,8 +3315,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,31 +3428,31 @@
         <v>6200</v>
       </c>
       <c r="E54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1200</v>
       </c>
       <c r="J54" s="3">
         <v>1200</v>
       </c>
       <c r="K54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -3344,7 +3470,7 @@
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
@@ -3353,10 +3479,13 @@
         <v>400</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,16 +3533,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -3420,12 +3551,12 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3438,8 +3569,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3448,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3498,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,25 +3673,25 @@
         <v>6400</v>
       </c>
       <c r="E59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L59" s="3">
         <v>1100</v>
@@ -3566,22 +3703,22 @@
         <v>1100</v>
       </c>
       <c r="O59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>6400</v>
       </c>
       <c r="E60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
       </c>
       <c r="K60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1100</v>
       </c>
       <c r="M60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>500</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,22 +3868,22 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>7200</v>
       </c>
       <c r="E66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
       </c>
       <c r="M66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
       </c>
       <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-2500</v>
       </c>
       <c r="G72" s="3">
         <v>-2500</v>
       </c>
       <c r="H72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2700</v>
       </c>
       <c r="L72" s="3">
         <v>-2700</v>
       </c>
       <c r="M72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2700</v>
       </c>
       <c r="P72" s="3">
         <v>-2700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-1900</v>
       </c>
       <c r="T72" s="3">
         <v>-1900</v>
       </c>
       <c r="U72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-800</v>
       </c>
       <c r="H76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-1000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-500</v>
       </c>
       <c r="S76" s="3">
         <v>-500</v>
       </c>
       <c r="T76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
       </c>
       <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,107 +4856,113 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4776,28 +4971,31 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,16 +5018,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4864,8 +5063,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,34 +5406,37 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>800</v>
       </c>
       <c r="J89" s="3">
         <v>800</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5231,19 +5448,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5252,10 +5469,13 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,28 +5498,29 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5322,11 +5543,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5476,11 +5706,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,40 +6041,43 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5843,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5916,41 +6165,44 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E8" s="3">
         <v>19700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -822,37 +826,40 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E9" s="3">
         <v>19500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -872,8 +879,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,19 +906,19 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -917,10 +927,10 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -937,8 +947,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,41 +1285,42 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E17" s="3">
         <v>19700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
@@ -1304,57 +1331,60 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>-100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1369,28 +1399,31 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,26 +1466,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1479,43 +1513,46 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1524,10 +1561,10 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,11 +1601,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,34 +1661,34 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1654,28 +1697,31 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,34 +1865,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1849,28 +1901,31 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,34 +1933,34 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1914,28 +1969,31 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2212,26 +2282,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,34 +2341,34 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2304,28 +2377,31 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,34 +2477,34 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2434,98 +2513,104 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,38 +2660,39 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2628,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,37 +2794,40 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>9300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2767,24 +2860,27 @@
         <v>300</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>4800</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2798,8 +2894,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2834,25 +2930,28 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2869,8 +2968,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2884,11 +2983,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -2899,43 +2998,46 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E46" s="3">
         <v>6000</v>
       </c>
       <c r="F46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="G46" s="3">
         <v>1800</v>
       </c>
       <c r="H46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2953,7 +3055,7 @@
         <v>300</v>
       </c>
       <c r="T46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
@@ -2962,10 +3064,13 @@
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -3047,7 +3155,7 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3056,7 +3164,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3082,20 +3190,23 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3303,8 +3423,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3318,8 +3438,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,43 +3542,46 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6200</v>
+        <v>10200</v>
       </c>
       <c r="E54" s="3">
         <v>6200</v>
       </c>
       <c r="F54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
@@ -3473,7 +3599,7 @@
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -3482,10 +3608,13 @@
         <v>400</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,19 +3664,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -3554,12 +3685,12 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3572,8 +3703,8 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3582,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3635,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3664,37 +3798,40 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6400</v>
+        <v>4200</v>
       </c>
       <c r="E59" s="3">
         <v>6400</v>
       </c>
       <c r="F59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1800</v>
       </c>
       <c r="K59" s="3">
         <v>1800</v>
       </c>
       <c r="L59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M59" s="3">
         <v>1100</v>
@@ -3706,22 +3843,22 @@
         <v>1100</v>
       </c>
       <c r="P59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6400</v>
+        <v>10500</v>
       </c>
       <c r="E60" s="3">
         <v>6400</v>
       </c>
       <c r="F60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1800</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
       </c>
       <c r="L60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1200</v>
       </c>
       <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>500</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,34 +4002,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>800</v>
       </c>
       <c r="F62" s="3">
+        <v>800</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7200</v>
+        <v>11200</v>
       </c>
       <c r="E66" s="3">
         <v>7200</v>
       </c>
       <c r="F66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
       </c>
       <c r="V66" s="3">
+        <v>800</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-2500</v>
       </c>
       <c r="H72" s="3">
         <v>-2500</v>
       </c>
       <c r="I72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2700</v>
       </c>
       <c r="M72" s="3">
         <v>-2700</v>
       </c>
       <c r="N72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-2700</v>
       </c>
       <c r="Q72" s="3">
         <v>-2700</v>
       </c>
       <c r="R72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-1900</v>
       </c>
       <c r="U72" s="3">
         <v>-1900</v>
       </c>
       <c r="V72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W72" s="3">
         <v>-1800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q76" s="3">
         <v>-1000</v>
       </c>
       <c r="R76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-500</v>
       </c>
       <c r="T76" s="3">
         <v>-500</v>
       </c>
       <c r="U76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="V76" s="3">
         <v>-400</v>
       </c>
       <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,34 +5133,34 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4974,28 +5169,31 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,19 +5217,20 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,37 +5623,40 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>800</v>
       </c>
       <c r="K89" s="3">
         <v>800</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5451,19 +5668,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5472,10 +5689,13 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,20 +5731,20 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5546,11 +5767,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,11 +5939,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,43 +6287,46 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6092,25 +6338,28 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6168,44 +6417,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E8" s="3">
         <v>34200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -829,40 +832,43 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E9" s="3">
         <v>34000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19500</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -882,8 +888,8 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,31 +903,34 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
-        <v>-100</v>
-      </c>
       <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -930,10 +939,10 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -950,8 +959,8 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,44 +1311,45 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E17" s="3">
         <v>34300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1334,61 +1360,64 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
@@ -1402,28 +1431,31 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1469,26 +1502,26 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1516,47 +1549,50 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
@@ -1564,10 +1600,10 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1584,13 +1620,16 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1604,11 +1643,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1652,47 +1691,50 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
@@ -1700,28 +1742,31 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,47 +1904,50 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
@@ -1904,67 +1955,70 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
@@ -1972,28 +2026,31 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2285,26 +2354,26 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2332,47 +2401,50 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
@@ -2380,28 +2452,31 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,47 +2543,50 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
@@ -2516,101 +2594,107 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,41 +2746,42 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>900</v>
       </c>
       <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2718,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,40 +2886,43 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>9300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
@@ -2863,27 +2955,30 @@
         <v>300</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>4800</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2897,8 +2992,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2933,28 +3028,31 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2971,8 +3069,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2986,11 +3084,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -3001,46 +3099,49 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>6000</v>
       </c>
       <c r="F46" s="3">
         <v>6000</v>
       </c>
       <c r="G46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="H46" s="3">
         <v>1800</v>
       </c>
       <c r="I46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -3058,7 +3159,7 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
@@ -3067,33 +3168,36 @@
         <v>400</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -3158,7 +3265,7 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3167,7 +3274,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3193,20 +3300,23 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3525,16 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3426,8 +3545,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3441,8 +3560,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,46 +3667,49 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6200</v>
       </c>
       <c r="F54" s="3">
         <v>6200</v>
       </c>
       <c r="G54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1200</v>
       </c>
       <c r="L54" s="3">
         <v>1200</v>
       </c>
       <c r="M54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -3602,7 +3727,7 @@
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
@@ -3611,10 +3736,13 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,22 +3794,23 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -3688,12 +3818,12 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3706,8 +3836,8 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3716,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3733,31 +3863,34 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3772,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3801,40 +3934,43 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>6400</v>
       </c>
       <c r="F59" s="3">
         <v>6400</v>
       </c>
       <c r="G59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1800</v>
       </c>
       <c r="L59" s="3">
         <v>1800</v>
       </c>
       <c r="M59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N59" s="3">
         <v>1100</v>
@@ -3846,22 +3982,22 @@
         <v>1100</v>
       </c>
       <c r="Q59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="3">
         <v>900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
@@ -3869,76 +4005,82 @@
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6400</v>
       </c>
       <c r="F60" s="3">
         <v>6400</v>
       </c>
       <c r="G60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1800</v>
       </c>
       <c r="M60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1200</v>
       </c>
       <c r="Q60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,37 +4147,40 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>800</v>
       </c>
       <c r="G62" s="3">
+        <v>800</v>
+      </c>
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4052,8 +4197,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>11200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7200</v>
       </c>
       <c r="F66" s="3">
         <v>7200</v>
       </c>
       <c r="G66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
       </c>
       <c r="O66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
+        <v>800</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2500</v>
       </c>
       <c r="I72" s="3">
         <v>-2500</v>
       </c>
       <c r="J72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-2700</v>
       </c>
       <c r="N72" s="3">
         <v>-2700</v>
       </c>
       <c r="O72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-2700</v>
       </c>
       <c r="R72" s="3">
         <v>-2700</v>
       </c>
       <c r="S72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1900</v>
       </c>
       <c r="V72" s="3">
         <v>-1900</v>
       </c>
       <c r="W72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X72" s="3">
         <v>-1800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
       </c>
       <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1000</v>
       </c>
       <c r="R76" s="3">
         <v>-1000</v>
       </c>
       <c r="S76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-500</v>
       </c>
       <c r="U76" s="3">
         <v>-500</v>
       </c>
       <c r="V76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
       </c>
       <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,120 +5239,126 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
@@ -5172,28 +5366,31 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,22 +5415,23 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5268,8 +5466,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,40 +5839,43 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>800</v>
       </c>
       <c r="L89" s="3">
         <v>800</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5671,19 +5887,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5692,10 +5908,13 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,20 +5954,20 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5755,8 +5975,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5770,11 +5990,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5942,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,46 +6532,49 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>1900</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6341,25 +6586,28 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6420,47 +6668,50 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,149 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>24100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -835,43 +839,46 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>23400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19500</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -891,8 +898,8 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -906,34 +913,37 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -942,10 +952,10 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -962,8 +972,8 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,47 +1338,48 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1363,63 +1390,66 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>-100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1434,28 +1464,31 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1505,26 +1539,26 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1552,49 +1586,52 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1603,10 +1640,10 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>100</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
@@ -1623,16 +1660,19 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1646,11 +1686,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1694,49 +1734,52 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1745,28 +1788,31 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,49 +1956,52 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1958,69 +2010,72 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -2029,28 +2084,31 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2357,26 +2427,26 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2404,49 +2474,52 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2455,28 +2528,31 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,49 +2622,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2597,104 +2676,110 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,44 +2833,45 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
       </c>
       <c r="J41" s="3">
+        <v>900</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2807,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,34 +2991,34 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>9300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2958,10 +3051,13 @@
         <v>300</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2969,19 +3065,19 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>4800</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2995,8 +3091,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3031,31 +3127,34 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3072,8 +3171,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -3087,11 +3186,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3102,49 +3201,52 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>6000</v>
       </c>
       <c r="G46" s="3">
         <v>6000</v>
       </c>
       <c r="H46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="I46" s="3">
         <v>1800</v>
       </c>
       <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
@@ -3162,7 +3264,7 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
@@ -3171,18 +3273,21 @@
         <v>400</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -3190,17 +3295,17 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3244,19 +3349,22 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -3268,7 +3376,7 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3277,7 +3385,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3303,20 +3411,23 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3537,7 +3657,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3548,8 +3668,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3563,8 +3683,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,49 +3793,52 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6200</v>
       </c>
       <c r="G54" s="3">
         <v>6200</v>
       </c>
       <c r="H54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1200</v>
       </c>
       <c r="M54" s="3">
         <v>1200</v>
       </c>
       <c r="N54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
@@ -3730,7 +3856,7 @@
         <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
@@ -3739,10 +3865,13 @@
         <v>400</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,16 +3935,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -3821,12 +3952,12 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3839,8 +3970,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3849,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3866,16 +3997,19 @@
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>1600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -3892,8 +4026,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3908,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3937,43 +4071,46 @@
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6400</v>
       </c>
       <c r="G59" s="3">
         <v>6400</v>
       </c>
       <c r="H59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1800</v>
       </c>
       <c r="M59" s="3">
         <v>1800</v>
       </c>
       <c r="N59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="O59" s="3">
         <v>1100</v>
@@ -3985,22 +4122,22 @@
         <v>1100</v>
       </c>
       <c r="R59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
@@ -4008,79 +4145,85 @@
       <c r="Y59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6400</v>
       </c>
       <c r="G60" s="3">
         <v>6400</v>
       </c>
       <c r="H60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1800</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
       </c>
       <c r="N60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
       </c>
       <c r="P60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1200</v>
       </c>
       <c r="R60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,31 +4305,31 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>800</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
       </c>
       <c r="H62" s="3">
+        <v>800</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -4200,8 +4346,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7200</v>
       </c>
       <c r="G66" s="3">
         <v>7200</v>
       </c>
       <c r="H66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
       </c>
       <c r="P66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1500</v>
       </c>
       <c r="R66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>800</v>
       </c>
       <c r="X66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2500</v>
       </c>
       <c r="J72" s="3">
         <v>-2500</v>
       </c>
       <c r="K72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-2700</v>
       </c>
       <c r="O72" s="3">
         <v>-2700</v>
       </c>
       <c r="P72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-2700</v>
       </c>
       <c r="S72" s="3">
         <v>-2700</v>
       </c>
       <c r="T72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1900</v>
       </c>
       <c r="W72" s="3">
         <v>-1900</v>
       </c>
       <c r="X72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
       </c>
       <c r="K76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1000</v>
       </c>
       <c r="S76" s="3">
         <v>-1000</v>
       </c>
       <c r="T76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-500</v>
       </c>
       <c r="V76" s="3">
         <v>-500</v>
       </c>
       <c r="W76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
       </c>
       <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,125 +5431,131 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -5369,28 +5564,31 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5427,14 +5626,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5469,8 +5668,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,43 +6056,46 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>800</v>
       </c>
       <c r="M89" s="3">
         <v>800</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5890,19 +6107,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -5911,10 +6128,13 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6160,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -5957,20 +6178,20 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5978,8 +6199,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5993,11 +6214,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,17 +6380,20 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6174,11 +6404,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,49 +6778,52 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6589,25 +6835,28 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6671,50 +6920,53 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,156 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -842,46 +846,49 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>23400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -901,8 +908,8 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -916,37 +923,40 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -955,10 +965,10 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -975,8 +985,8 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,50 +1365,51 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
@@ -1393,66 +1420,69 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>-100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1467,28 +1497,31 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-800</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1542,26 +1576,26 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1589,52 +1623,55 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1643,10 +1680,10 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>100</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
@@ -1663,19 +1700,22 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1689,11 +1729,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1737,52 +1777,55 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1791,28 +1834,31 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,52 +2008,55 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -2013,72 +2065,75 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -2087,28 +2142,31 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2430,26 +2500,26 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2477,52 +2547,55 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2531,28 +2604,31 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,52 +2701,55 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2679,107 +2758,113 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,47 +2920,48 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
       </c>
       <c r="K41" s="3">
+        <v>900</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2897,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,46 +3072,49 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
         <v>1300</v>
       </c>
       <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
         <v>9300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3054,10 +3147,13 @@
         <v>300</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3068,19 +3164,19 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3190,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3130,34 +3226,37 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3174,8 +3273,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -3189,11 +3288,11 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3204,52 +3303,55 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6000</v>
       </c>
       <c r="H46" s="3">
         <v>6000</v>
       </c>
       <c r="I46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="J46" s="3">
         <v>1800</v>
       </c>
       <c r="K46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -3267,7 +3369,7 @@
         <v>300</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
@@ -3276,21 +3378,24 @@
         <v>400</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -3298,17 +3403,17 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3352,22 +3457,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -3379,7 +3487,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3388,7 +3496,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3414,20 +3522,23 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,19 +3765,22 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3671,8 +3791,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3686,8 +3806,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,52 +3919,55 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>6200</v>
       </c>
       <c r="H54" s="3">
         <v>6200</v>
       </c>
       <c r="I54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1200</v>
       </c>
       <c r="N54" s="3">
         <v>1200</v>
       </c>
       <c r="O54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -3859,7 +3985,7 @@
         <v>300</v>
       </c>
       <c r="W54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>400</v>
@@ -3868,10 +3994,13 @@
         <v>400</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3938,16 +4069,16 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -3955,12 +4086,12 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3973,8 +4104,8 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3983,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -4000,19 +4131,22 @@
       <c r="Z57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>1600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -4029,8 +4163,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4045,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4074,46 +4208,49 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6400</v>
       </c>
       <c r="H59" s="3">
         <v>6400</v>
       </c>
       <c r="I59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1800</v>
       </c>
       <c r="N59" s="3">
         <v>1800</v>
       </c>
       <c r="O59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="P59" s="3">
         <v>1100</v>
@@ -4125,22 +4262,22 @@
         <v>1100</v>
       </c>
       <c r="S59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
       </c>
       <c r="X59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>200</v>
@@ -4148,82 +4285,88 @@
       <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6400</v>
       </c>
       <c r="H60" s="3">
         <v>6400</v>
       </c>
       <c r="I60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
       </c>
       <c r="O60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>500</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,31 +4454,31 @@
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
+        <v>800</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4349,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7200</v>
       </c>
       <c r="H66" s="3">
         <v>7200</v>
       </c>
       <c r="I66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
       </c>
       <c r="S66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
-      </c>
-      <c r="W66" s="3">
-        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>800</v>
       </c>
       <c r="Y66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4999,73 +5173,76 @@
         <v>-3200</v>
       </c>
       <c r="E72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-2500</v>
       </c>
       <c r="K72" s="3">
         <v>-2500</v>
       </c>
       <c r="L72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2700</v>
       </c>
       <c r="P72" s="3">
         <v>-2700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-2700</v>
       </c>
       <c r="T72" s="3">
         <v>-2700</v>
       </c>
       <c r="U72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-1900</v>
       </c>
       <c r="X72" s="3">
         <v>-1900</v>
       </c>
       <c r="Y72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,73 +5481,76 @@
         <v>-1500</v>
       </c>
       <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-800</v>
       </c>
       <c r="K76" s="3">
         <v>-800</v>
       </c>
       <c r="L76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1000</v>
       </c>
       <c r="T76" s="3">
         <v>-1000</v>
       </c>
       <c r="U76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-500</v>
       </c>
       <c r="W76" s="3">
         <v>-500</v>
       </c>
       <c r="X76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Y76" s="3">
         <v>-400</v>
       </c>
       <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,131 +5623,137 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -5567,28 +5762,31 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5629,14 +5828,14 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5671,8 +5870,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,46 +6273,49 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>800</v>
       </c>
       <c r="N89" s="3">
         <v>800</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6110,19 +6327,19 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6131,10 +6348,13 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,17 +6381,18 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6181,20 +6402,20 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6202,8 +6423,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -6217,11 +6438,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,20 +6610,23 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6407,11 +6637,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,52 +7024,55 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6838,30 +7084,33 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6923,53 +7172,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
+      <c r="Y101" s="3">
+        <v>0</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,163 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -849,49 +853,52 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>23400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -911,8 +918,8 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -926,40 +933,43 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -968,10 +978,10 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -988,8 +998,8 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,53 +1392,54 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
@@ -1423,69 +1450,72 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1500,28 +1530,31 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,16 +1582,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1579,26 +1613,26 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1626,55 +1660,58 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-900</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1683,10 +1720,10 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>100</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
@@ -1703,22 +1740,25 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1732,11 +1772,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1780,55 +1820,58 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1837,28 +1880,31 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,55 +2060,58 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -2068,75 +2120,78 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2145,28 +2200,31 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2503,26 +2573,26 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2550,55 +2620,58 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2607,28 +2680,31 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,55 +2780,58 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2761,110 +2840,116 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,50 +3007,51 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2987,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,49 +3165,52 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1300</v>
       </c>
       <c r="F43" s="3">
         <v>1300</v>
       </c>
       <c r="G43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H43" s="3">
         <v>9300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3150,10 +3243,13 @@
         <v>300</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3167,19 +3263,19 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>4800</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -3193,8 +3289,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3229,37 +3325,40 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3276,8 +3375,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3291,11 +3390,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3306,55 +3405,58 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6000</v>
       </c>
       <c r="I46" s="3">
         <v>6000</v>
       </c>
       <c r="J46" s="3">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="K46" s="3">
         <v>1800</v>
       </c>
       <c r="L46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -3372,7 +3474,7 @@
         <v>300</v>
       </c>
       <c r="X46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
@@ -3381,10 +3483,13 @@
         <v>400</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -3406,17 +3511,17 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3460,25 +3565,28 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -3490,7 +3598,7 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3499,7 +3607,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3525,20 +3633,23 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,13 +3897,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3794,8 +3914,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3809,8 +3929,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,55 +4045,58 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6200</v>
       </c>
       <c r="I54" s="3">
         <v>6200</v>
       </c>
       <c r="J54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1200</v>
       </c>
       <c r="O54" s="3">
         <v>1200</v>
       </c>
       <c r="P54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
@@ -3988,7 +4114,7 @@
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>400</v>
@@ -3997,10 +4123,13 @@
         <v>400</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,13 +4187,14 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4072,16 +4203,16 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -4089,12 +4220,12 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4107,8 +4238,8 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4117,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -4134,22 +4265,25 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>1600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -4166,8 +4300,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4182,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4211,49 +4345,52 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6400</v>
       </c>
       <c r="I59" s="3">
         <v>6400</v>
       </c>
       <c r="J59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1800</v>
       </c>
       <c r="O59" s="3">
         <v>1800</v>
       </c>
       <c r="P59" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q59" s="3">
         <v>1100</v>
@@ -4265,22 +4402,22 @@
         <v>1100</v>
       </c>
       <c r="T59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
       </c>
       <c r="Y59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
@@ -4288,85 +4425,91 @@
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6400</v>
       </c>
       <c r="I60" s="3">
         <v>6400</v>
       </c>
       <c r="J60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1800</v>
       </c>
       <c r="P60" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>1200</v>
       </c>
       <c r="T60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
-      </c>
-      <c r="X60" s="3">
-        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>500</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,13 +4585,16 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
@@ -4457,31 +4603,31 @@
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>800</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
       </c>
       <c r="J62" s="3">
+        <v>800</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7200</v>
       </c>
       <c r="I66" s="3">
         <v>7200</v>
       </c>
       <c r="J66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
       </c>
       <c r="R66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1500</v>
       </c>
       <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
-      </c>
-      <c r="X66" s="3">
-        <v>800</v>
       </c>
       <c r="Y66" s="3">
         <v>800</v>
       </c>
       <c r="Z66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3200</v>
+        <v>-4200</v>
       </c>
       <c r="E72" s="3">
         <v>-3200</v>
       </c>
       <c r="F72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2500</v>
       </c>
       <c r="L72" s="3">
         <v>-2500</v>
       </c>
       <c r="M72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-2700</v>
       </c>
       <c r="Q72" s="3">
         <v>-2700</v>
       </c>
       <c r="R72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-2700</v>
       </c>
       <c r="U72" s="3">
         <v>-2700</v>
       </c>
       <c r="V72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-1900</v>
       </c>
       <c r="Y72" s="3">
         <v>-1900</v>
       </c>
       <c r="Z72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1500</v>
+        <v>-2400</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
       </c>
       <c r="M76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1000</v>
       </c>
       <c r="U76" s="3">
         <v>-1000</v>
       </c>
       <c r="V76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-500</v>
       </c>
       <c r="X76" s="3">
         <v>-500</v>
       </c>
       <c r="Y76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="Z76" s="3">
         <v>-400</v>
       </c>
       <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,137 +5815,143 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5765,28 +5960,31 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,7 +6022,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5831,14 +6030,14 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,49 +6490,52 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>800</v>
       </c>
       <c r="O89" s="3">
         <v>800</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6330,19 +6547,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6351,10 +6568,13 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,11 +6612,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6405,20 +6626,20 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6426,8 +6647,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -6441,11 +6662,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,14 +6852,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6640,11 +6870,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,55 +7270,58 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7087,34 +7333,37 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -7175,56 +7424,59 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZZLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ZZLL</t>
   </si>
@@ -6617,17 +6617,17 @@
       <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
